--- a/实验.xlsx
+++ b/实验.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\yys\Paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yu153\Desktop\振动导航\Papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24007A2-0C3A-4187-990E-6D3E1408E6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCF613A-1D4B-448A-A535-B49FC2FD8E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="12">
+  <futureMetadata name="XLRICHVALUE" count="13">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -593,8 +593,15 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="12">
+  <valueMetadata count="13">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -630,13 +637,16 @@
     </bk>
     <bk>
       <rc t="1" v="11"/>
+    </bk>
+    <bk>
+      <rc t="1" v="12"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
   <si>
     <t>25人（10女15男）
 age18-65</t>
@@ -942,30 +952,59 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>系统能检测路径中的障碍物并计算其距离</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>到达城市森林中的三个不同目的地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功率、速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过振动编码表示方向可行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机地图导航。将方向距离信息通过振动编码。双脉冲方向编码：以两个脉冲的相对长度编码方向。双脉冲距离编码：在方向编码之间通过停顿编码，暂停时间越短，表示目的地越近。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MED 2014 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10人 age26-65</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沿着路线在建筑物内转弯2或3次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功率、旅行时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可导航; 100%达到目标;舒适度：6.3/7;信息量：6/7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每只手臂上都戴上了振动触觉手镯。右（左）手镯的振动表明他们必须向右（左）转。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A remote guidance system for blind and visually impaired people via vibrotactile haptic feedback</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>成功率</t>
-  </si>
-  <si>
-    <t>系统能检测路径中的障碍物并计算其距离</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>14人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>到达城市森林中的三个不同目的地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功率、速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过振动编码表示方向可行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机地图导航。将方向距离信息通过振动编码。双脉冲方向编码：以两个脉冲的相对长度编码方向。双脉冲距离编码：在方向编码之间通过停顿编码，暂停时间越短，表示目的地越近。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1100,7 +1139,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="12">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="13">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -1149,6 +1188,10 @@
     <v>11</v>
     <v>5</v>
   </rv>
+  <rv s="0">
+    <v>12</v>
+    <v>5</v>
+  </rv>
 </rvData>
 </file>
 
@@ -1175,6 +1218,7 @@
   <rel r:id="rId10"/>
   <rel r:id="rId11"/>
   <rel r:id="rId12"/>
+  <rel r:id="rId13"/>
 </richValueRels>
 </file>
 
@@ -1428,27 +1472,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="50.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="36.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="54.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="41.125" customWidth="1"/>
-    <col min="10" max="10" width="21.375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="6.90625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.6328125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="50.90625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.7265625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36.453125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="54.90625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="41.08984375" customWidth="1"/>
+    <col min="10" max="10" width="21.36328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
@@ -1476,11 +1521,11 @@
       <c r="I1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="202.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="231" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1509,8 +1554,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="81" x14ac:dyDescent="0.15">
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1539,8 +1585,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" ht="60.75" x14ac:dyDescent="0.15">
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="84" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1569,8 +1616,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="81" x14ac:dyDescent="0.15">
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1599,8 +1647,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="42" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1615,8 +1664,9 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="168" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1645,8 +1695,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="202.5" x14ac:dyDescent="0.15">
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="231" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1675,8 +1726,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="147" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1705,8 +1757,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1735,8 +1788,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="60.75" x14ac:dyDescent="0.15">
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1765,8 +1819,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="60.75" x14ac:dyDescent="0.15">
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1784,17 +1839,18 @@
         <v>72</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="I12" s="4" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
       <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="101.25" x14ac:dyDescent="0.15">
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1802,22 +1858,22 @@
         <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="I13" s="4" t="e" vm="11">
         <v>#VALUE!</v>
@@ -1825,22 +1881,42 @@
       <c r="J13" s="4" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="210" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="4" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
       <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="K14" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1853,8 +1929,9 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1867,8 +1944,9 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1881,8 +1959,9 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1895,8 +1974,9 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1909,8 +1989,9 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1923,8 +2004,9 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1937,8 +2019,9 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1951,8 +2034,9 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1965,8 +2049,9 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1979,8 +2064,9 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1993,8 +2079,9 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2007,8 +2094,9 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2021,8 +2109,9 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -2035,8 +2124,9 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2049,8 +2139,9 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2063,8 +2154,9 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2077,8 +2169,9 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2091,8 +2184,9 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2105,8 +2199,9 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2119,8 +2214,9 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2133,92 +2229,93 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="3:5" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:5" ht="21" x14ac:dyDescent="0.25">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="3:5" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="3:5" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:5" ht="21" x14ac:dyDescent="0.25">
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
@@ -2237,12 +2334,12 @@
       <selection activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.375" customWidth="1"/>
+    <col min="1" max="1" width="89.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
   </sheetData>
@@ -2258,7 +2355,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实验.xlsx
+++ b/实验.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yu153\Desktop\振动导航\Papers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\yys\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCF613A-1D4B-448A-A535-B49FC2FD8E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267BFB13-8351-4870-9CEF-E2C452E3721E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="13">
+  <futureMetadata name="XLRICHVALUE" count="17">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -600,8 +600,36 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="13"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="14"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="15"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="16"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="13">
+  <valueMetadata count="17">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -640,13 +668,25 @@
     </bk>
     <bk>
       <rc t="1" v="12"/>
+    </bk>
+    <bk>
+      <rc t="1" v="13"/>
+    </bk>
+    <bk>
+      <rc t="1" v="14"/>
+    </bk>
+    <bk>
+      <rc t="1" v="15"/>
+    </bk>
+    <bk>
+      <rc t="1" v="16"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="117">
   <si>
     <t>25人（10女15男）
 age18-65</t>
@@ -1005,6 +1045,126 @@
   </si>
   <si>
     <t>成功率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHI EA 2016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16人 age16-55</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手腕周围有4个振动电机，两个顶部电机的同时振动表明目标在用户前方的60度角内。如果只有一个电机在振动，用户必须改变方向，振动持续时间传达角度偏移。离目标越近，振动频率越高。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过自由航线导航至450米外的目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心理负荷，路径长度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有被试均以最短路径到达目标，心理负荷率略低于角度检测任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unconstrained Pedestrian Navigation based on Vibro-tactile Feedback around the Wristband of a Smartwatch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过智能手表传递手腕振动。如果一个人向右转向，在他们的右手腕上，他们感觉到一个500毫秒的连续振动的模式，以表示45°转弯，或者两个225毫秒的振动模式，由50毫秒的停顿分开，以表示90°转弯。如果一个人转向左边，在他们的左手腕上，他们感觉到一个500毫秒的连续振动的模式，以表示45°转弯，或者两个225毫秒的振动模式，由50毫秒的停顿分开，以表示90°转弯。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沿沿着直线（100米）或曲线（123米）车道行走</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间，在通道中的时间%，优先权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用于导航，但更倾向于人工引导，性能更好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14人 age24-72</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASSETS 2018</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exploring aural and haptic feedback for visually impaired people on a track: A wizard of oz study</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MobileHCI 2018  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25人age22-29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个振动电机环绕手腕。按照颜色编码，八个方向的信号由四个触觉致动器传递，这些致动器放置在手腕周围的一个带上：顶部（手腕下方）的致动器用于向前（向后），左侧（右侧）的致动器用于向左（右侧）。两个相邻的致动器的同时激活被用于编码在四个主要方向之间的方向。不同信号的长度也不同，前向为500 ms，后向的三个方向为1000 ms，所有其他方向为750 ms。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以推拉模式沿两条约675米的路线行驶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>步行速度，问卷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有参与者始终达到目标;模式之间的步行速度没有差异;拉动模式的“控制”和“更谨慎”评分更高;两种模式都可靠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Information Push and Pull in Tactile Pedestrian Navigation Support</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Vibrotactile Feedback as an Orientation Aid for Blind Users of Mobile Guides </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Social gravity: A virtual elastic tether for casual, privacy preserving pedestrian rendezvous</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“I did it my way”: Moving away from the tyranny of turn by-turn pedestrian navigation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smartphone haptic feedback for nonvisual wayfinding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naviradar: A novel tactile information display for pedestrian navigation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pedestrian navigation using haptic feedback: Results from a field study to test spatial abilities and memory recall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runahead: Exploring head scanning based navigation for runners</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vi-Bros: Tactile Feedback  for Indoor Navigation with a Smartphone and a Smartwatch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Way-finding Electronic Bracelet for Visually Impaired People</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1139,7 +1299,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="13">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="17">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -1192,6 +1352,22 @@
     <v>12</v>
     <v>5</v>
   </rv>
+  <rv s="0">
+    <v>13</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>14</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>15</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>16</v>
+    <v>5</v>
+  </rv>
 </rvData>
 </file>
 
@@ -1219,6 +1395,10 @@
   <rel r:id="rId11"/>
   <rel r:id="rId12"/>
   <rel r:id="rId13"/>
+  <rel r:id="rId14"/>
+  <rel r:id="rId15"/>
+  <rel r:id="rId16"/>
+  <rel r:id="rId17"/>
 </richValueRels>
 </file>
 
@@ -1474,26 +1654,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.6328125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="50.90625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.7265625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="36.453125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="54.90625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="41.08984375" customWidth="1"/>
-    <col min="10" max="10" width="21.36328125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43.625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="50.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="54.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="41.125" customWidth="1"/>
+    <col min="10" max="10" width="21.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="51.625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
@@ -1525,7 +1705,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="231" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1554,9 +1734,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="K2" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1585,9 +1767,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+      <c r="K3" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="60.75" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1616,9 +1800,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="K4" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1647,9 +1833,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="42" x14ac:dyDescent="0.25">
+      <c r="K5" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1666,7 +1854,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="168" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1695,9 +1883,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" ht="231" x14ac:dyDescent="0.25">
+      <c r="K7" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1726,9 +1916,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="147" x14ac:dyDescent="0.25">
+      <c r="K8" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1757,9 +1949,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="K9" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1788,9 +1982,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="K10" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="60.75" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1819,9 +2015,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="K11" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="60.75" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1848,9 +2046,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="K12" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1883,7 +2083,7 @@
       </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="210" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="60.75" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1916,52 +2116,108 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="4" t="e" vm="14">
+        <v>#VALUE!</v>
+      </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="K15" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="4" t="e" vm="15">
+        <v>#VALUE!</v>
+      </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="K16" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="182.25" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="4" t="e" vm="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J17" s="4" t="e" vm="17">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1976,7 +2232,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1991,7 +2247,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2006,7 +2262,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2021,7 +2277,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2036,7 +2292,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2051,7 +2307,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2066,7 +2322,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2081,7 +2337,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2096,7 +2352,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2111,7 +2367,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -2126,7 +2382,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2141,7 +2397,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2156,7 +2412,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2171,7 +2427,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2186,7 +2442,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2201,7 +2457,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2216,7 +2472,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2231,91 +2487,91 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B43" s="3"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B44" s="3"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="3:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:5" ht="20.25" x14ac:dyDescent="0.15">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="3:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:5" ht="20.25" x14ac:dyDescent="0.15">
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="3:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:5" ht="20.25" x14ac:dyDescent="0.15">
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
@@ -2334,12 +2590,12 @@
       <selection activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="89.36328125" customWidth="1"/>
+    <col min="1" max="1" width="89.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
     </row>
   </sheetData>
@@ -2355,7 +2611,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实验.xlsx
+++ b/实验.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\yys\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267BFB13-8351-4870-9CEF-E2C452E3721E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A2B5AA-BBB0-4FBE-954E-6D1240C40689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1654,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/实验.xlsx
+++ b/实验.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\yys\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A2B5AA-BBB0-4FBE-954E-6D1240C40689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C992991-C9C7-4C22-9999-1E9BD4E1F549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="17">
+  <futureMetadata name="XLRICHVALUE" count="20">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -628,8 +628,29 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="17"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="18"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="19"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="17">
+  <valueMetadata count="20">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -680,13 +701,22 @@
     </bk>
     <bk>
       <rc t="1" v="16"/>
+    </bk>
+    <bk>
+      <rc t="1" v="17"/>
+    </bk>
+    <bk>
+      <rc t="1" v="18"/>
+    </bk>
+    <bk>
+      <rc t="1" v="19"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="125">
   <si>
     <t>25人（10女15男）
 age18-65</t>
@@ -735,10 +765,6 @@
   </si>
   <si>
     <t>所有受试者均到达终点;固定和可变方向角在距离和时间方面没有差异;在动态条件下，受试者倾向于停留在主要路径上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICMI 2011</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -795,12 +821,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-指示方向和距离的时间振动模式
-该装置由一部移动的手机组成，手机背面装有一个外部振动器，参与者必须将食指放在振动器上。第一次振动代表前进的方向，通过节奏传达方向表现最好，随后的两次振动之间的间隔时间表示所需方向，短时间表示向右，长时间表示向左。两次振动的强度表示距离，强度越高表示距离越近。NaviRadar提供持续反馈。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>GISRUK 2012</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1165,6 +1185,47 @@
   </si>
   <si>
     <t>Way-finding Electronic Bracelet for Visually Impaired People</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PocketNavigator: Vibro-Tactile Waypoint Navigation for Everyday Mobile Devices</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stravigation: A vibrotactile mobile navigation for exploration-like sightseeing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ACE 2012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指示方向和距离的时间振动模式
+该装置由一部移动的手机组成，手机背面装有一个外部振动器，参与者必须将食指放在振动器上。第一次振动代表前进的方向，通过节奏传达方向表现最好，随后的两次振动之间的间隔时间表示所需方向，短时间表示向右，长时间表示向左。两次振动的强度表示距离，强度越高表示距离越近。NaviRadar提供持续反馈。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在提供方向信息时，导航会指示设备轴向与目的地方向之间的角度偏差。如果角度偏差大于 ±30°，设备不会提供任何振动反馈。 如果角度偏差在 ±15° 和 ±30° 之间，设备会以低频振动； 当角度偏差角度在 ±5° 和 ±15° 之间时，会产生中频振动。 如果角度偏差小于 ±5°，则会产生快速频率振动。  距离和方向信息通过相同的振动触觉信号提供。 通过使用三维加速计，判断设备表面是否与地面平行，如果设备表面与地面平行，设备就会切换到方向提供模式，用户可以通过左右摆动设备来寻找方向；否则，设备就会切换到距离提供模式。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>走到斜400m的地点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问卷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统具有更高的方向信息提供精度。此外，系统具有足够的助航能力和可靠性，使游客能够享受探险式的观光。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evaluating Haptics for Information Discovery While Walking</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1184,6 +1245,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1299,7 +1361,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="17">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="20">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -1368,6 +1430,18 @@
     <v>16</v>
     <v>5</v>
   </rv>
+  <rv s="0">
+    <v>17</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>18</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>19</v>
+    <v>5</v>
+  </rv>
 </rvData>
 </file>
 
@@ -1399,6 +1473,9 @@
   <rel r:id="rId15"/>
   <rel r:id="rId16"/>
   <rel r:id="rId17"/>
+  <rel r:id="rId18"/>
+  <rel r:id="rId19"/>
+  <rel r:id="rId20"/>
 </richValueRels>
 </file>
 
@@ -1652,10 +1729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="D15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1663,46 +1740,47 @@
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="43.625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="50.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="50.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="55.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="29.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="36.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="54.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="41.125" customWidth="1"/>
-    <col min="10" max="10" width="21.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="38.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="51.625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="202.5" x14ac:dyDescent="0.15">
@@ -1710,32 +1788,32 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="I2" s="4" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="81" x14ac:dyDescent="0.15">
@@ -1743,32 +1821,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="I3" s="4" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
-        <v>108</v>
+      <c r="K3" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="60.75" x14ac:dyDescent="0.15">
@@ -1776,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>0</v>
@@ -1800,8 +1878,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
-        <v>109</v>
+      <c r="K4" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="81" x14ac:dyDescent="0.15">
@@ -1833,393 +1911,415 @@
         <v>#VALUE!</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="K5" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="4" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="K6" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="162" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>18</v>
+      <c r="E7" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="4" t="e" vm="5">
+        <v>23</v>
+      </c>
+      <c r="I7" s="4" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="202.5" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="4" t="e" vm="6">
+        <v>26</v>
+      </c>
+      <c r="I8" s="4" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="121.5" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="4" t="e" vm="7">
+        <v>56</v>
+      </c>
+      <c r="I9" s="4" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="60.75" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="4" t="e" vm="8">
+        <v>65</v>
+      </c>
+      <c r="I10" s="4" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="60.75" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>60</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="4" t="e" vm="9">
+        <v>71</v>
+      </c>
+      <c r="I11" s="4" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="101.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="4" t="e" vm="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J12" s="4" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="60.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="4" t="s">
+    <row r="13" spans="1:11" ht="60.75" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="4" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="101.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="4" t="e" vm="10">
+      <c r="D14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="4" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="101.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="4" t="e" vm="11">
+      <c r="J14" s="4" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
-      <c r="J13" s="4" t="e" vm="12">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" ht="60.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="4" t="e" vm="13">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="101.25" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="182.25" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15" s="4" t="e" vm="14">
+        <v>95</v>
+      </c>
+      <c r="I15" s="4" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="202.5" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="182.25" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I16" s="4" t="e" vm="15">
+        <v>104</v>
+      </c>
+      <c r="I16" s="4" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="4" t="e" vm="18">
+        <v>#VALUE!</v>
+      </c>
       <c r="K16" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="182.25" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="263.25" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>102</v>
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I17" s="4" t="e" vm="16">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17" s="4" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
-      <c r="J17" s="4" t="e" vm="17">
+      <c r="J17" s="4" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>107</v>
+      <c r="K17" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2234,7 +2334,7 @@
     </row>
     <row r="19" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2249,7 +2349,7 @@
     </row>
     <row r="20" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2264,7 +2364,7 @@
     </row>
     <row r="21" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2279,7 +2379,7 @@
     </row>
     <row r="22" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2294,7 +2394,7 @@
     </row>
     <row r="23" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2309,7 +2409,7 @@
     </row>
     <row r="24" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2324,7 +2424,7 @@
     </row>
     <row r="25" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2339,7 +2439,7 @@
     </row>
     <row r="26" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2354,7 +2454,7 @@
     </row>
     <row r="27" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2369,7 +2469,7 @@
     </row>
     <row r="28" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2384,7 +2484,7 @@
     </row>
     <row r="29" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2399,7 +2499,7 @@
     </row>
     <row r="30" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2414,7 +2514,7 @@
     </row>
     <row r="31" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2429,7 +2529,7 @@
     </row>
     <row r="32" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2444,7 +2544,7 @@
     </row>
     <row r="33" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2459,7 +2559,7 @@
     </row>
     <row r="34" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2473,26 +2573,17 @@
       <c r="K34" s="4"/>
     </row>
     <row r="35" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="4">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4"/>
+      <c r="B35" s="3"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
@@ -2537,7 +2628,6 @@
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B44" s="3"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -2562,18 +2652,13 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="3:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="C49" s="4"/>
+    <row r="49" spans="4:5" ht="20.25" x14ac:dyDescent="0.15">
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="3:5" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="4:5" ht="20.25" x14ac:dyDescent="0.15">
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="3:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/实验.xlsx
+++ b/实验.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\yys\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C992991-C9C7-4C22-9999-1E9BD4E1F549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2447470B-044B-4E4B-A6DD-44F1E4422124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -716,7 +716,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="126">
   <si>
     <t>25人（10女15男）
 age18-65</t>
@@ -1226,6 +1226,10 @@
   </si>
   <si>
     <t>Evaluating Haptics for Information Discovery While Walking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☑️</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1233,7 +1237,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1264,6 +1268,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1287,7 +1297,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1302,6 +1312,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1729,10 +1742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1751,7 +1764,7 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1783,7 +1796,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="202.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1816,7 +1829,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="81" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1849,7 +1862,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="60.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="60.75" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1882,7 +1895,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="81" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1915,7 +1928,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>6</v>
       </c>
@@ -1944,11 +1957,14 @@
         <v>#VALUE!</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="162" x14ac:dyDescent="0.15">
+      <c r="L6" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="162" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>7</v>
       </c>
@@ -1981,7 +1997,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>8</v>
       </c>
@@ -2014,7 +2030,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>9</v>
       </c>
@@ -2047,7 +2063,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="60.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="60.75" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>10</v>
       </c>
@@ -2080,7 +2096,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>11</v>
       </c>
@@ -2111,7 +2127,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="101.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>12</v>
       </c>
@@ -2146,7 +2162,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="60.75" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="60.75" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>13</v>
       </c>
@@ -2179,7 +2195,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="101.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>14</v>
       </c>
@@ -2214,7 +2230,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="182.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="182.25" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>15</v>
       </c>
@@ -2247,7 +2263,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="182.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" ht="182.25" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>16</v>
       </c>

--- a/实验.xlsx
+++ b/实验.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\yys\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2447470B-044B-4E4B-A6DD-44F1E4422124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4116D119-F334-45D1-82FC-0DD64B892CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,7 +508,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="20">
+  <futureMetadata name="XLRICHVALUE" count="22">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -649,8 +649,22 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="20"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="21"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="20">
+  <valueMetadata count="22">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -710,13 +724,19 @@
     </bk>
     <bk>
       <rc t="1" v="19"/>
+    </bk>
+    <bk>
+      <rc t="1" v="20"/>
+    </bk>
+    <bk>
+      <rc t="1" v="21"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="134">
   <si>
     <t>25人（10女15男）
 age18-65</t>
@@ -1230,6 +1250,64 @@
   </si>
   <si>
     <t>☑️</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHI 2021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>触觉罗盘由两部分组成：1)手柄形状的触觉装置，带有指向目标方向的可旋转指针;2)控制该装置的制导策略。
+触觉装置包括以下三部分:1)带有触觉针的可旋转圆盘，用于指示目标方向;2)home标记，用于指示用户当前方向;3)手柄，形状与虚拟现实手柄相似。
+引导策略包括指示方向策略和路径跟随策略
+用户通过手指感受自己与目标的角度，可以直观地调整方向，使自己与目标对齐，朝目标前进。圆盘只能在±90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的范围内旋转，角度超过90°时，手柄提供双重振动反馈，</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18人（12男 6女）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OptTrack定位系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7*13m的室内环境完成5种类型的基本路径：直道、曲道、直角转弯、锐角转弯、钝角转弯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏差、区域外比例、速度、用户轨迹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用触觉罗盘，用户可以准确地感知方向，并沿着60cm宽的路径平稳导航</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tactile Compass: Enabling Visually Impaired People to Follow a
+Path with Continuous Directional Feedback</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1237,7 +1315,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1273,6 +1351,12 @@
       <color theme="1"/>
       <name val="Segoe UI Emoji"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1374,7 +1458,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="20">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="22">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -1455,6 +1539,14 @@
     <v>19</v>
     <v>5</v>
   </rv>
+  <rv s="0">
+    <v>20</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>21</v>
+    <v>5</v>
+  </rv>
 </rvData>
 </file>
 
@@ -1489,6 +1581,8 @@
   <rel r:id="rId18"/>
   <rel r:id="rId19"/>
   <rel r:id="rId20"/>
+  <rel r:id="rId21"/>
+  <rel r:id="rId22"/>
 </richValueRels>
 </file>
 
@@ -1744,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="D17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1996,6 +2090,9 @@
       <c r="K7" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="L7" s="5" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
@@ -2333,20 +2430,40 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" ht="248.25" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>18</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" s="4" t="e" vm="21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J18" s="4" t="e" vm="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A19" s="4">

--- a/实验.xlsx
+++ b/实验.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\yys\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4116D119-F334-45D1-82FC-0DD64B892CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F10CA92-F2B3-4097-8DE0-30AE21BD1323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1838,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2087,7 +2087,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>110</v>
       </c>
       <c r="L7" s="5" t="s">

--- a/实验.xlsx
+++ b/实验.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\yys\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F10CA92-F2B3-4097-8DE0-30AE21BD1323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1830630E-3991-4C43-BF95-06F7BFFAE057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1838,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2189,7 +2189,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="3" t="s">
         <v>113</v>
       </c>
     </row>
